--- a/listas desp.xlsx
+++ b/listas desp.xlsx
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>tipo</t>
   </si>
@@ -3331,7 +3331,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="19.5">
@@ -3440,7 +3440,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="3" customWidth="true" width="19.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5">
@@ -3487,28 +3487,6 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/listas desp.xlsx
+++ b/listas desp.xlsx
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>tipo</t>
   </si>
@@ -556,6 +556,9 @@
   </si>
   <si>
     <t>asdfgh</t>
+  </si>
+  <si>
+    <t>upalele</t>
   </si>
 </sst>
 </file>
@@ -3476,17 +3479,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/listas desp.xlsx
+++ b/listas desp.xlsx
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>tipo</t>
   </si>
@@ -3461,22 +3461,22 @@
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2">
-        <v>10</v>
+      <c r="B2" s="2" t="n">
+        <v>13.0</v>
       </c>
-      <c r="C2" s="2">
-        <v>15</v>
+      <c r="C2" s="2" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2">
-        <v>5</v>
+      <c r="B3" s="2" t="n">
+        <v>1.0</v>
       </c>
-      <c r="C3" s="2">
-        <v>10</v>
+      <c r="C3" s="2" t="n">
+        <v>6.0</v>
       </c>
     </row>
   </sheetData>
